--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.4 Sprint_Backlog_4.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.4 Sprint_Backlog_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -996,13 +996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.77734375" customWidth="1"/>
+    <col min="1" max="1" width="100" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
